--- a/public/data/sites.xlsx
+++ b/public/data/sites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f05d42c171b1d969/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bautek-hompage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B1D9D1C-462B-4640-B3E1-79041D4C6F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE110A48-E431-4BE3-BE7A-08450B1C5CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{90DA7668-941B-45E8-8F84-C63A56E1DFC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{90DA7668-941B-45E8-8F84-C63A56E1DFC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,10 +378,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/KeyClient/Shinsaegaepng</t>
-  </si>
-  <si>
     <t>빌리브리버런트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/KeyClient/Shinsaegae.png</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -390,10 +391,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,10 +573,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -587,10 +588,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -602,10 +603,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -614,7 +615,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -641,10 +642,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -653,10 +654,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -664,7 +665,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{F6C324FA-D14E-4BCC-9DF6-F981535070E2}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -999,11 +1000,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F26BF3-C1EC-4B70-A86E-5EB058D5B44F}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.625" style="2" customWidth="1"/>
@@ -1012,7 +1013,7 @@
     <col min="6" max="7" width="10.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="33" customFormat="1" ht="21.6" customHeight="1">
+    <row r="1" spans="1:7" s="33" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="22.15" customHeight="1">
+    <row r="2" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>128.55867799999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.15" customHeight="1">
+    <row r="3" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>126.979345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="22.15" customHeight="1">
+    <row r="4" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>126.86873199999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="22.15" customHeight="1">
+    <row r="5" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>126.868335</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="22.15" customHeight="1">
+    <row r="6" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
@@ -1148,7 +1149,7 @@
         <v>128.59344100000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="22.15" customHeight="1">
+    <row r="7" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
@@ -1169,7 +1170,7 @@
         <v>126.983385</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="22.15" customHeight="1">
+    <row r="8" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
@@ -1192,7 +1193,7 @@
         <v>128.89164099999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="22.15" customHeight="1">
+    <row r="9" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>27</v>
       </c>
@@ -1215,7 +1216,7 @@
         <v>126.844069</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="22.15" customHeight="1">
+    <row r="10" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>31</v>
       </c>
@@ -1239,7 +1240,7 @@
         <v>127.002917</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="22.15" customHeight="1">
+    <row r="11" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>33</v>
       </c>
@@ -1262,7 +1263,7 @@
         <v>128.08571699999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="22.15" customHeight="1">
+    <row r="12" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>35</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>126.697428</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="22.15" customHeight="1">
+    <row r="13" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>39</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>127.125702</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="22.15" customHeight="1">
+    <row r="14" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>41</v>
       </c>
@@ -1331,7 +1332,7 @@
         <v>128.62753699999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="22.15" customHeight="1">
+    <row r="15" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>43</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>126.71882100000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="22.15" customHeight="1">
+    <row r="16" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>45</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>126.909711</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="22.15" customHeight="1">
+    <row r="17" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>47</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>127.450344</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="22.15" customHeight="1">
+    <row r="18" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>49</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>127.056669</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="22.15" customHeight="1">
+    <row r="19" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>51</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>128.72651500000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="22.15" customHeight="1">
+    <row r="20" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>55</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>129.09251599999999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="22.15" customHeight="1">
+    <row r="21" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>57</v>
       </c>
@@ -1492,7 +1493,7 @@
         <v>126.81936399999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="22.15" customHeight="1">
+    <row r="22" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>61</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>129.37558300000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="22.15" customHeight="1">
+    <row r="23" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>63</v>
       </c>
@@ -1538,7 +1539,7 @@
         <v>126.95327399999999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="22.15" customHeight="1">
+    <row r="24" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>67</v>
       </c>
@@ -1561,7 +1562,7 @@
         <v>126.683842</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="22.15" customHeight="1">
+    <row r="25" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>69</v>
       </c>
@@ -1584,7 +1585,7 @@
         <v>127.951711</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="22.15" customHeight="1">
+    <row r="26" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>71</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>128.53311400000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="22.15" customHeight="1">
+    <row r="27" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>73</v>
       </c>
@@ -1630,7 +1631,7 @@
         <v>126.673773</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="22.15" customHeight="1">
+    <row r="28" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>75</v>
       </c>
@@ -1653,7 +1654,7 @@
         <v>126.74664300000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="22.15" customHeight="1">
+    <row r="29" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>77</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>126.682586</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="22.15" customHeight="1">
+    <row r="30" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>79</v>
       </c>
@@ -1699,7 +1700,7 @@
         <v>127.090754</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="22.15" customHeight="1">
+    <row r="31" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>83</v>
       </c>
@@ -1722,7 +1723,7 @@
         <v>126.680836</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="22.15" customHeight="1">
+    <row r="32" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>85</v>
       </c>
@@ -1745,7 +1746,7 @@
         <v>127.16999</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="22.15" customHeight="1">
+    <row r="33" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>89</v>
       </c>
@@ -1768,7 +1769,7 @@
         <v>127.16999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="22.15" customHeight="1">
+    <row r="34" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>93</v>
       </c>
@@ -1791,7 +1792,7 @@
         <v>129.26778100000001</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="22.15" customHeight="1">
+    <row r="35" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
         <v>97</v>
       </c>
@@ -1799,10 +1800,10 @@
         <v>98</v>
       </c>
       <c r="C35" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>99</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>100</v>
       </c>
       <c r="E35" s="26">
         <v>311</v>
@@ -1814,7 +1815,7 @@
         <v>129.322126</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1822,7 +1823,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>

--- a/public/data/sites.xlsx
+++ b/public/data/sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bautek-hompage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE110A48-E431-4BE3-BE7A-08450B1C5CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9288C5FA-9D4D-4677-BC48-1727AAD4C09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{90DA7668-941B-45E8-8F84-C63A56E1DFC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="109">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -384,6 +384,30 @@
   <si>
     <t>/KeyClient/Shinsaegae.png</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s35</t>
+  </si>
+  <si>
+    <t>삼성물산</t>
+  </si>
+  <si>
+    <t>/KeyClient/samsung.png</t>
+  </si>
+  <si>
+    <t>래미안트리니원</t>
+  </si>
+  <si>
+    <t>s36</t>
+  </si>
+  <si>
+    <t>포스코이앤씨</t>
+  </si>
+  <si>
+    <t>/KeyClient/Posco.png</t>
+  </si>
+  <si>
+    <t>포스코오티에르</t>
   </si>
 </sst>
 </file>
@@ -394,7 +418,7 @@
     <numFmt numFmtId="176" formatCode="0.00000"/>
     <numFmt numFmtId="177" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +489,33 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -560,23 +611,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -662,6 +704,18 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1000,836 +1054,866 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F26BF3-C1EC-4B70-A86E-5EB058D5B44F}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="33" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7" s="30" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <v>86</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="6">
         <v>35.859352999999999</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="7">
         <v>128.55867799999999</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>2633</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="11">
         <v>37.383980000000001</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="12">
         <v>126.979345</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>3804</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>37.482711999999999</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="12">
         <v>126.86873199999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>1490</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="11">
         <v>37.485453</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="12">
         <v>126.868335</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <v>1758</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="11">
         <v>35.855117999999997</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="12">
         <v>128.59344100000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <v>2180</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <v>37.390790000000003</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="12">
         <v>126.983385</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="8">
         <v>992</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="11">
         <v>35.226903</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="12">
         <v>128.89164099999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="8">
         <v>707</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <v>35.582918999999997</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="12">
         <v>126.844069</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="8">
         <f>739+849</f>
         <v>1588</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="11">
         <v>36.768129999999999</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="12">
         <v>127.002917</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="8">
         <v>677</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="11">
         <v>34.930737999999998</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="12">
         <v>128.08571699999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>625</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="11">
         <v>37.598376999999999</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="12">
         <v>126.697428</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="8">
         <v>535</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="11">
         <v>37.542867999999999</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="12">
         <v>127.125702</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="8">
         <v>322</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="11">
         <v>35.876660999999999</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="12">
         <v>128.62753699999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="20">
         <v>1458</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="11">
         <v>37.596037000000003</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="12">
         <v>126.71882100000001</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="8">
         <v>262</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="11">
         <v>37.598340999999998</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="12">
         <v>126.909711</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="8">
         <v>558</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="11">
         <v>37.293013000000002</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="12">
         <v>127.450344</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="21">
         <v>1626</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="11">
         <v>36.792288999999997</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="12">
         <v>127.056669</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="8">
         <v>343</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="11">
         <v>34.868617</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="12">
         <v>128.72651500000001</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="8">
         <v>415</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="11">
         <v>35.258766999999999</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="12">
         <v>129.09251599999999</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="8">
         <v>577</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="11">
         <v>37.559583000000003</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="12">
         <v>126.81936399999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="8">
         <v>212</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="11">
         <v>36.052664999999998</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="12">
         <v>129.37558300000001</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="8">
         <v>458</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="11">
         <v>37.374136</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="12">
         <v>126.95327399999999</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="8">
         <v>949</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="11">
         <v>36.645383000000002</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="12">
         <v>126.683842</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="8">
         <v>970</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="15">
         <v>37.316023999999999</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="12">
         <v>127.951711</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="8">
         <v>438</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="15">
         <v>35.837752999999999</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="16">
         <v>128.53311400000001</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="8">
         <v>732</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="15">
         <v>37.601111000000003</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="12">
         <v>126.673773</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="13">
         <v>800</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="11">
         <v>35.983002999999997</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="12">
         <v>126.74664300000001</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="13">
         <v>709</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="11">
         <v>37.610427000000001</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="12">
         <v>126.682586</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="13">
         <v>464</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="11">
         <v>37.192450000000001</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="12">
         <v>127.090754</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="13">
         <v>548</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="11">
         <v>37.378968999999998</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="12">
         <v>126.680836</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="13">
         <v>1305</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="11">
         <v>37.572637</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="12">
         <v>127.16999</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="27">
         <v>1305</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="28">
         <v>37.572637</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="29">
         <v>127.16999</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="13">
         <v>731</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="11">
         <v>35.581713000000001</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="12">
         <v>129.26778100000001</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="23">
         <v>311</v>
       </c>
-      <c r="F35" s="27">
+      <c r="F35" s="24">
         <v>35.548447000000003</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="25">
         <v>129.322126</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
+      <c r="A36" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="32">
+        <v>2091</v>
+      </c>
+      <c r="F36" s="33">
+        <v>37.500635000000003</v>
+      </c>
+      <c r="G36" s="33">
+        <v>126.98910100000001</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
+      <c r="A37" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="32">
+        <v>182</v>
+      </c>
+      <c r="F37" s="33">
+        <v>37.520178000000001</v>
+      </c>
+      <c r="G37" s="34">
+        <v>127.01326</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/public/data/sites.xlsx
+++ b/public/data/sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bautek-hompage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9288C5FA-9D4D-4677-BC48-1727AAD4C09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407089FC-4AA6-4CEE-84E2-3AF60F3A2AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{90DA7668-941B-45E8-8F84-C63A56E1DFC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="113">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -408,6 +408,22 @@
   </si>
   <si>
     <t>포스코오티에르</t>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>준공년도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수도권</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024년</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1052,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F26BF3-C1EC-4B70-A86E-5EB058D5B44F}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1064,10 +1080,12 @@
     <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="43.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="30" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="30" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1084,13 +1102,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="22.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1106,14 +1130,20 @@
       <c r="E2" s="3">
         <v>86</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="6">
         <v>35.859352999999999</v>
       </c>
-      <c r="G2" s="7">
+      <c r="I2" s="7">
         <v>128.55867799999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1127,14 +1157,20 @@
       <c r="E3" s="8">
         <v>2633</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="11">
         <v>37.383980000000001</v>
       </c>
-      <c r="G3" s="12">
+      <c r="I3" s="12">
         <v>126.979345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1150,14 +1186,20 @@
       <c r="E4" s="8">
         <v>3804</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="11">
         <v>37.482711999999999</v>
       </c>
-      <c r="G4" s="12">
+      <c r="I4" s="12">
         <v>126.86873199999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
@@ -1173,14 +1215,20 @@
       <c r="E5" s="8">
         <v>1490</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="11">
         <v>37.485453</v>
       </c>
-      <c r="G5" s="12">
+      <c r="I5" s="12">
         <v>126.868335</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
@@ -1196,14 +1244,20 @@
       <c r="E6" s="8">
         <v>1758</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="11">
         <v>35.855117999999997</v>
       </c>
-      <c r="G6" s="12">
+      <c r="I6" s="12">
         <v>128.59344100000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
@@ -1217,14 +1271,20 @@
       <c r="E7" s="8">
         <v>2180</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="11">
         <v>37.390790000000003</v>
       </c>
-      <c r="G7" s="12">
+      <c r="I7" s="12">
         <v>126.983385</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
@@ -1240,14 +1300,20 @@
       <c r="E8" s="8">
         <v>992</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="11">
         <v>35.226903</v>
       </c>
-      <c r="G8" s="12">
+      <c r="I8" s="12">
         <v>128.89164099999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1263,14 +1329,20 @@
       <c r="E9" s="8">
         <v>707</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="11">
         <v>35.582918999999997</v>
       </c>
-      <c r="G9" s="12">
+      <c r="I9" s="12">
         <v>126.844069</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>31</v>
       </c>
@@ -1287,14 +1359,20 @@
         <f>739+849</f>
         <v>1588</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="11">
         <v>36.768129999999999</v>
       </c>
-      <c r="G10" s="12">
+      <c r="I10" s="12">
         <v>127.002917</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
@@ -1310,14 +1388,20 @@
       <c r="E11" s="8">
         <v>677</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="11">
         <v>34.930737999999998</v>
       </c>
-      <c r="G11" s="12">
+      <c r="I11" s="12">
         <v>128.08571699999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
@@ -1333,14 +1417,20 @@
       <c r="E12" s="8">
         <v>625</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="11">
         <v>37.598376999999999</v>
       </c>
-      <c r="G12" s="12">
+      <c r="I12" s="12">
         <v>126.697428</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -1356,14 +1446,20 @@
       <c r="E13" s="8">
         <v>535</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="11">
         <v>37.542867999999999</v>
       </c>
-      <c r="G13" s="12">
+      <c r="I13" s="12">
         <v>127.125702</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>41</v>
       </c>
@@ -1379,14 +1475,20 @@
       <c r="E14" s="8">
         <v>322</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="11">
         <v>35.876660999999999</v>
       </c>
-      <c r="G14" s="12">
+      <c r="I14" s="12">
         <v>128.62753699999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>43</v>
       </c>
@@ -1402,14 +1504,20 @@
       <c r="E15" s="20">
         <v>1458</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="11">
         <v>37.596037000000003</v>
       </c>
-      <c r="G15" s="12">
+      <c r="I15" s="12">
         <v>126.71882100000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>45</v>
       </c>
@@ -1425,14 +1533,20 @@
       <c r="E16" s="8">
         <v>262</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="11">
         <v>37.598340999999998</v>
       </c>
-      <c r="G16" s="12">
+      <c r="I16" s="12">
         <v>126.909711</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>47</v>
       </c>
@@ -1448,14 +1562,20 @@
       <c r="E17" s="8">
         <v>558</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="11">
         <v>37.293013000000002</v>
       </c>
-      <c r="G17" s="12">
+      <c r="I17" s="12">
         <v>127.450344</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
@@ -1471,14 +1591,20 @@
       <c r="E18" s="21">
         <v>1626</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="11">
         <v>36.792288999999997</v>
       </c>
-      <c r="G18" s="12">
+      <c r="I18" s="12">
         <v>127.056669</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>51</v>
       </c>
@@ -1494,14 +1620,20 @@
       <c r="E19" s="8">
         <v>343</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="11">
         <v>34.868617</v>
       </c>
-      <c r="G19" s="12">
+      <c r="I19" s="12">
         <v>128.72651500000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>55</v>
       </c>
@@ -1517,14 +1649,20 @@
       <c r="E20" s="8">
         <v>415</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="11">
         <v>35.258766999999999</v>
       </c>
-      <c r="G20" s="12">
+      <c r="I20" s="12">
         <v>129.09251599999999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>57</v>
       </c>
@@ -1540,14 +1678,20 @@
       <c r="E21" s="8">
         <v>577</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="11">
         <v>37.559583000000003</v>
       </c>
-      <c r="G21" s="12">
+      <c r="I21" s="12">
         <v>126.81936399999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>61</v>
       </c>
@@ -1563,14 +1707,20 @@
       <c r="E22" s="8">
         <v>212</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="11">
         <v>36.052664999999998</v>
       </c>
-      <c r="G22" s="12">
+      <c r="I22" s="12">
         <v>129.37558300000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>63</v>
       </c>
@@ -1586,14 +1736,20 @@
       <c r="E23" s="8">
         <v>458</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="11">
         <v>37.374136</v>
       </c>
-      <c r="G23" s="12">
+      <c r="I23" s="12">
         <v>126.95327399999999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>67</v>
       </c>
@@ -1609,14 +1765,20 @@
       <c r="E24" s="8">
         <v>949</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="11">
         <v>36.645383000000002</v>
       </c>
-      <c r="G24" s="12">
+      <c r="I24" s="12">
         <v>126.683842</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>69</v>
       </c>
@@ -1632,14 +1794,20 @@
       <c r="E25" s="8">
         <v>970</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="15">
         <v>37.316023999999999</v>
       </c>
-      <c r="G25" s="12">
+      <c r="I25" s="12">
         <v>127.951711</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>71</v>
       </c>
@@ -1655,14 +1823,20 @@
       <c r="E26" s="8">
         <v>438</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="15">
         <v>35.837752999999999</v>
       </c>
-      <c r="G26" s="16">
+      <c r="I26" s="16">
         <v>128.53311400000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>73</v>
       </c>
@@ -1678,14 +1852,20 @@
       <c r="E27" s="8">
         <v>732</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="15">
         <v>37.601111000000003</v>
       </c>
-      <c r="G27" s="12">
+      <c r="I27" s="12">
         <v>126.673773</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>75</v>
       </c>
@@ -1701,14 +1881,20 @@
       <c r="E28" s="13">
         <v>800</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="11">
         <v>35.983002999999997</v>
       </c>
-      <c r="G28" s="12">
+      <c r="I28" s="12">
         <v>126.74664300000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>77</v>
       </c>
@@ -1724,14 +1910,20 @@
       <c r="E29" s="13">
         <v>709</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="11">
         <v>37.610427000000001</v>
       </c>
-      <c r="G29" s="12">
+      <c r="I29" s="12">
         <v>126.682586</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>79</v>
       </c>
@@ -1747,14 +1939,20 @@
       <c r="E30" s="13">
         <v>464</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="11">
         <v>37.192450000000001</v>
       </c>
-      <c r="G30" s="12">
+      <c r="I30" s="12">
         <v>127.090754</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>83</v>
       </c>
@@ -1770,14 +1968,20 @@
       <c r="E31" s="13">
         <v>548</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="11">
         <v>37.378968999999998</v>
       </c>
-      <c r="G31" s="12">
+      <c r="I31" s="12">
         <v>126.680836</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>85</v>
       </c>
@@ -1793,14 +1997,20 @@
       <c r="E32" s="13">
         <v>1305</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="11">
         <v>37.572637</v>
       </c>
-      <c r="G32" s="12">
+      <c r="I32" s="12">
         <v>127.16999</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
         <v>89</v>
       </c>
@@ -1816,14 +2026,20 @@
       <c r="E33" s="27">
         <v>1305</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33" s="28">
         <v>37.572637</v>
       </c>
-      <c r="G33" s="29">
+      <c r="I33" s="29">
         <v>127.16999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>93</v>
       </c>
@@ -1839,14 +2055,20 @@
       <c r="E34" s="13">
         <v>731</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="11">
         <v>35.581713000000001</v>
       </c>
-      <c r="G34" s="12">
+      <c r="I34" s="12">
         <v>129.26778100000001</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>97</v>
       </c>
@@ -1862,14 +2084,20 @@
       <c r="E35" s="23">
         <v>311</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="24">
         <v>35.548447000000003</v>
       </c>
-      <c r="G35" s="25">
+      <c r="I35" s="25">
         <v>129.322126</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
         <v>101</v>
       </c>
@@ -1885,14 +2113,20 @@
       <c r="E36" s="32">
         <v>2091</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="33">
         <v>37.500635000000003</v>
       </c>
-      <c r="G36" s="33">
+      <c r="I36" s="33">
         <v>126.98910100000001</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
         <v>105</v>
       </c>
@@ -1908,10 +2142,16 @@
       <c r="E37" s="32">
         <v>182</v>
       </c>
-      <c r="F37" s="33">
+      <c r="F37" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" s="33">
         <v>37.520178000000001</v>
       </c>
-      <c r="G37" s="34">
+      <c r="I37" s="34">
         <v>127.01326</v>
       </c>
     </row>
